--- a/move_and_relocate/文件2.xlsx
+++ b/move_and_relocate/文件2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12291" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21942" windowHeight="9805" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
@@ -1299,48 +1299,48 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
@@ -1741,48 +1741,48 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="E11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>7</v>
-      </c>
       <c r="F11" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
